--- a/app/src/main/res/raw/quiz_v1.xlsx
+++ b/app/src/main/res/raw/quiz_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_quiz" sheetId="7" r:id="rId1"/>
@@ -1818,7 +1818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1841,8 +1841,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1858,8 +1871,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1920,8 +1937,11 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1929,6 +1949,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1936,6 +1958,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2213,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2809,7 +2833,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3501,7 +3525,7 @@
         <v>2015</v>
       </c>
       <c r="C17" s="11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>138</v>
@@ -3543,7 +3567,7 @@
         <v>2015</v>
       </c>
       <c r="C18" s="11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>151</v>
@@ -3585,7 +3609,7 @@
         <v>2015</v>
       </c>
       <c r="C19" s="11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>160</v>
@@ -3627,7 +3651,7 @@
         <v>2015</v>
       </c>
       <c r="C20" s="11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>171</v>
@@ -3669,7 +3693,7 @@
         <v>2015</v>
       </c>
       <c r="C21" s="11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>182</v>
@@ -3711,7 +3735,7 @@
         <v>2015</v>
       </c>
       <c r="C22" s="11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>191</v>
@@ -3753,7 +3777,7 @@
         <v>2015</v>
       </c>
       <c r="C23" s="11">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>205</v>
@@ -3795,7 +3819,7 @@
         <v>2015</v>
       </c>
       <c r="C24" s="11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>216</v>
@@ -3837,7 +3861,7 @@
         <v>2015</v>
       </c>
       <c r="C25" s="11">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>205</v>
@@ -3879,7 +3903,7 @@
         <v>2015</v>
       </c>
       <c r="C26" s="11">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>182</v>
@@ -4898,7 +4922,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4958,7 +4982,7 @@
         <v>2015</v>
       </c>
       <c r="C2" s="11">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>16</v>
@@ -4999,8 +5023,8 @@
       <c r="B3" s="10">
         <v>2015</v>
       </c>
-      <c r="C3" s="11">
-        <v>90</v>
+      <c r="C3" s="24">
+        <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>47</v>
@@ -5041,8 +5065,8 @@
       <c r="B4" s="10">
         <v>2015</v>
       </c>
-      <c r="C4" s="11">
-        <v>91</v>
+      <c r="C4" s="24">
+        <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>64</v>
@@ -5083,8 +5107,8 @@
       <c r="B5" s="10">
         <v>2015</v>
       </c>
-      <c r="C5" s="11">
-        <v>92</v>
+      <c r="C5" s="24">
+        <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>87</v>
@@ -5125,8 +5149,8 @@
       <c r="B6" s="10">
         <v>2015</v>
       </c>
-      <c r="C6" s="11">
-        <v>93</v>
+      <c r="C6" s="24">
+        <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>109</v>
@@ -5167,8 +5191,8 @@
       <c r="B7" s="10">
         <v>2015</v>
       </c>
-      <c r="C7" s="11">
-        <v>94</v>
+      <c r="C7" s="24">
+        <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>121</v>
@@ -5209,8 +5233,8 @@
       <c r="B8" s="10">
         <v>2015</v>
       </c>
-      <c r="C8" s="11">
-        <v>95</v>
+      <c r="C8" s="24">
+        <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>150</v>
@@ -5251,8 +5275,8 @@
       <c r="B9" s="10">
         <v>2015</v>
       </c>
-      <c r="C9" s="11">
-        <v>96</v>
+      <c r="C9" s="24">
+        <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>167</v>
@@ -5293,8 +5317,8 @@
       <c r="B10" s="10">
         <v>2015</v>
       </c>
-      <c r="C10" s="11">
-        <v>97</v>
+      <c r="C10" s="24">
+        <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>186</v>
@@ -5335,8 +5359,8 @@
       <c r="B11" s="10">
         <v>2015</v>
       </c>
-      <c r="C11" s="11">
-        <v>98</v>
+      <c r="C11" s="24">
+        <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>213</v>
@@ -5377,8 +5401,8 @@
       <c r="B12" s="10">
         <v>2015</v>
       </c>
-      <c r="C12" s="11">
-        <v>99</v>
+      <c r="C12" s="24">
+        <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>221</v>
@@ -5419,8 +5443,8 @@
       <c r="B13" s="10">
         <v>2015</v>
       </c>
-      <c r="C13" s="11">
-        <v>89</v>
+      <c r="C13" s="24">
+        <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>16</v>
@@ -5461,8 +5485,8 @@
       <c r="B14" s="10">
         <v>2015</v>
       </c>
-      <c r="C14" s="11">
-        <v>90</v>
+      <c r="C14" s="24">
+        <v>13</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>47</v>
@@ -5503,8 +5527,8 @@
       <c r="B15" s="10">
         <v>2015</v>
       </c>
-      <c r="C15" s="11">
-        <v>91</v>
+      <c r="C15" s="24">
+        <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>64</v>
@@ -5545,8 +5569,8 @@
       <c r="B16" s="10">
         <v>2015</v>
       </c>
-      <c r="C16" s="11">
-        <v>92</v>
+      <c r="C16" s="24">
+        <v>15</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>87</v>
@@ -5587,8 +5611,8 @@
       <c r="B17" s="10">
         <v>2015</v>
       </c>
-      <c r="C17" s="11">
-        <v>93</v>
+      <c r="C17" s="24">
+        <v>16</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>109</v>
@@ -5629,8 +5653,8 @@
       <c r="B18" s="10">
         <v>2015</v>
       </c>
-      <c r="C18" s="11">
-        <v>94</v>
+      <c r="C18" s="24">
+        <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>121</v>
@@ -5671,8 +5695,8 @@
       <c r="B19" s="10">
         <v>2015</v>
       </c>
-      <c r="C19" s="11">
-        <v>95</v>
+      <c r="C19" s="24">
+        <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>150</v>
@@ -5713,8 +5737,8 @@
       <c r="B20" s="10">
         <v>2015</v>
       </c>
-      <c r="C20" s="11">
-        <v>96</v>
+      <c r="C20" s="24">
+        <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>167</v>
@@ -5755,8 +5779,8 @@
       <c r="B21" s="10">
         <v>2015</v>
       </c>
-      <c r="C21" s="11">
-        <v>97</v>
+      <c r="C21" s="24">
+        <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>186</v>
@@ -5797,8 +5821,8 @@
       <c r="B22" s="10">
         <v>2015</v>
       </c>
-      <c r="C22" s="11">
-        <v>98</v>
+      <c r="C22" s="24">
+        <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>213</v>
@@ -5839,8 +5863,8 @@
       <c r="B23" s="10">
         <v>2015</v>
       </c>
-      <c r="C23" s="11">
-        <v>99</v>
+      <c r="C23" s="24">
+        <v>22</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>221</v>
@@ -5881,8 +5905,8 @@
       <c r="B24" s="10">
         <v>2015</v>
       </c>
-      <c r="C24" s="11">
-        <v>97</v>
+      <c r="C24" s="24">
+        <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>186</v>
@@ -5923,8 +5947,8 @@
       <c r="B25" s="10">
         <v>2015</v>
       </c>
-      <c r="C25" s="11">
-        <v>98</v>
+      <c r="C25" s="24">
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>213</v>
@@ -5965,8 +5989,8 @@
       <c r="B26" s="10">
         <v>2015</v>
       </c>
-      <c r="C26" s="11">
-        <v>99</v>
+      <c r="C26" s="24">
+        <v>25</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>221</v>
@@ -6985,7 +7009,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7045,7 +7069,7 @@
         <v>2015</v>
       </c>
       <c r="C2" s="11">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>31</v>
@@ -7086,8 +7110,8 @@
       <c r="B3" s="10">
         <v>2015</v>
       </c>
-      <c r="C3" s="11">
-        <v>65</v>
+      <c r="C3" s="24">
+        <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>38</v>
@@ -7128,8 +7152,8 @@
       <c r="B4" s="10">
         <v>2015</v>
       </c>
-      <c r="C4" s="11">
-        <v>66</v>
+      <c r="C4" s="24">
+        <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>46</v>
@@ -7170,8 +7194,8 @@
       <c r="B5" s="10">
         <v>2015</v>
       </c>
-      <c r="C5" s="11">
-        <v>67</v>
+      <c r="C5" s="24">
+        <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>58</v>
@@ -7212,8 +7236,8 @@
       <c r="B6" s="10">
         <v>2015</v>
       </c>
-      <c r="C6" s="11">
-        <v>68</v>
+      <c r="C6" s="24">
+        <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>61</v>
@@ -7254,8 +7278,8 @@
       <c r="B7" s="10">
         <v>2015</v>
       </c>
-      <c r="C7" s="11">
-        <v>69</v>
+      <c r="C7" s="24">
+        <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>79</v>
@@ -7296,8 +7320,8 @@
       <c r="B8" s="10">
         <v>2015</v>
       </c>
-      <c r="C8" s="11">
-        <v>70</v>
+      <c r="C8" s="24">
+        <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>86</v>
@@ -7338,8 +7362,8 @@
       <c r="B9" s="10">
         <v>2015</v>
       </c>
-      <c r="C9" s="11">
-        <v>71</v>
+      <c r="C9" s="24">
+        <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>99</v>
@@ -7380,8 +7404,8 @@
       <c r="B10" s="10">
         <v>2015</v>
       </c>
-      <c r="C10" s="11">
-        <v>72</v>
+      <c r="C10" s="24">
+        <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>113</v>
@@ -7422,8 +7446,8 @@
       <c r="B11" s="10">
         <v>2015</v>
       </c>
-      <c r="C11" s="11">
-        <v>73</v>
+      <c r="C11" s="24">
+        <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>122</v>
@@ -7464,8 +7488,8 @@
       <c r="B12" s="10">
         <v>2015</v>
       </c>
-      <c r="C12" s="11">
-        <v>74</v>
+      <c r="C12" s="24">
+        <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>133</v>
@@ -7506,8 +7530,8 @@
       <c r="B13" s="10">
         <v>2015</v>
       </c>
-      <c r="C13" s="11">
-        <v>75</v>
+      <c r="C13" s="24">
+        <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>142</v>
@@ -7548,8 +7572,8 @@
       <c r="B14" s="10">
         <v>2015</v>
       </c>
-      <c r="C14" s="11">
-        <v>76</v>
+      <c r="C14" s="24">
+        <v>13</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>155</v>
@@ -7590,8 +7614,8 @@
       <c r="B15" s="10">
         <v>2015</v>
       </c>
-      <c r="C15" s="11">
-        <v>77</v>
+      <c r="C15" s="24">
+        <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>161</v>
@@ -7632,8 +7656,8 @@
       <c r="B16" s="10">
         <v>2015</v>
       </c>
-      <c r="C16" s="11">
-        <v>78</v>
+      <c r="C16" s="24">
+        <v>15</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>174</v>
@@ -7674,8 +7698,8 @@
       <c r="B17" s="10">
         <v>2015</v>
       </c>
-      <c r="C17" s="11">
-        <v>79</v>
+      <c r="C17" s="24">
+        <v>16</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>184</v>
@@ -7716,8 +7740,8 @@
       <c r="B18" s="10">
         <v>2015</v>
       </c>
-      <c r="C18" s="11">
-        <v>80</v>
+      <c r="C18" s="24">
+        <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>202</v>
@@ -7758,8 +7782,8 @@
       <c r="B19" s="10">
         <v>2015</v>
       </c>
-      <c r="C19" s="11">
-        <v>81</v>
+      <c r="C19" s="24">
+        <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>218</v>
@@ -7800,8 +7824,8 @@
       <c r="B20" s="10">
         <v>2015</v>
       </c>
-      <c r="C20" s="11">
-        <v>82</v>
+      <c r="C20" s="24">
+        <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>223</v>
@@ -7842,8 +7866,8 @@
       <c r="B21" s="10">
         <v>2015</v>
       </c>
-      <c r="C21" s="11">
-        <v>83</v>
+      <c r="C21" s="24">
+        <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>226</v>
@@ -7884,8 +7908,8 @@
       <c r="B22" s="10">
         <v>2015</v>
       </c>
-      <c r="C22" s="11">
-        <v>84</v>
+      <c r="C22" s="24">
+        <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>229</v>
@@ -7926,8 +7950,8 @@
       <c r="B23" s="10">
         <v>2015</v>
       </c>
-      <c r="C23" s="11">
-        <v>85</v>
+      <c r="C23" s="24">
+        <v>22</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>235</v>
@@ -7968,8 +7992,8 @@
       <c r="B24" s="10">
         <v>2015</v>
       </c>
-      <c r="C24" s="11">
-        <v>86</v>
+      <c r="C24" s="24">
+        <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>239</v>
@@ -8010,8 +8034,8 @@
       <c r="B25" s="10">
         <v>2015</v>
       </c>
-      <c r="C25" s="11">
-        <v>87</v>
+      <c r="C25" s="24">
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>243</v>
@@ -8052,8 +8076,8 @@
       <c r="B26" s="10">
         <v>2015</v>
       </c>
-      <c r="C26" s="11">
-        <v>88</v>
+      <c r="C26" s="24">
+        <v>25</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>249</v>
@@ -9072,7 +9096,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9132,7 +9156,7 @@
         <v>2015</v>
       </c>
       <c r="C2" s="11">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>254</v>
@@ -9173,8 +9197,8 @@
       <c r="B3" s="10">
         <v>2015</v>
       </c>
-      <c r="C3" s="11">
-        <v>17</v>
+      <c r="C3" s="24">
+        <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>264</v>
@@ -9215,8 +9239,8 @@
       <c r="B4" s="10">
         <v>2015</v>
       </c>
-      <c r="C4" s="11">
-        <v>18</v>
+      <c r="C4" s="24">
+        <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>273</v>
@@ -9257,8 +9281,8 @@
       <c r="B5" s="10">
         <v>2015</v>
       </c>
-      <c r="C5" s="11">
-        <v>19</v>
+      <c r="C5" s="24">
+        <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>281</v>
@@ -9299,8 +9323,8 @@
       <c r="B6" s="10">
         <v>2015</v>
       </c>
-      <c r="C6" s="11">
-        <v>20</v>
+      <c r="C6" s="24">
+        <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>295</v>
@@ -9341,8 +9365,8 @@
       <c r="B7" s="10">
         <v>2015</v>
       </c>
-      <c r="C7" s="11">
-        <v>21</v>
+      <c r="C7" s="24">
+        <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>303</v>
@@ -9383,8 +9407,8 @@
       <c r="B8" s="10">
         <v>2015</v>
       </c>
-      <c r="C8" s="11">
-        <v>22</v>
+      <c r="C8" s="24">
+        <v>7</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>339</v>
@@ -9425,8 +9449,8 @@
       <c r="B9" s="10">
         <v>2015</v>
       </c>
-      <c r="C9" s="11">
-        <v>23</v>
+      <c r="C9" s="24">
+        <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>373</v>
@@ -9467,8 +9491,8 @@
       <c r="B10" s="10">
         <v>2015</v>
       </c>
-      <c r="C10" s="11">
-        <v>24</v>
+      <c r="C10" s="24">
+        <v>9</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>379</v>
@@ -9509,8 +9533,8 @@
       <c r="B11" s="10">
         <v>2015</v>
       </c>
-      <c r="C11" s="11">
-        <v>25</v>
+      <c r="C11" s="24">
+        <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>391</v>
@@ -9551,8 +9575,8 @@
       <c r="B12" s="10">
         <v>2015</v>
       </c>
-      <c r="C12" s="11">
-        <v>26</v>
+      <c r="C12" s="24">
+        <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>403</v>
@@ -9591,8 +9615,8 @@
       <c r="B13" s="10">
         <v>2015</v>
       </c>
-      <c r="C13" s="11">
-        <v>27</v>
+      <c r="C13" s="24">
+        <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>421</v>
@@ -9633,8 +9657,8 @@
       <c r="B14" s="10">
         <v>2015</v>
       </c>
-      <c r="C14" s="11">
-        <v>28</v>
+      <c r="C14" s="24">
+        <v>13</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>423</v>
@@ -9675,8 +9699,8 @@
       <c r="B15" s="10">
         <v>2015</v>
       </c>
-      <c r="C15" s="11">
-        <v>29</v>
+      <c r="C15" s="24">
+        <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>428</v>
@@ -9717,8 +9741,8 @@
       <c r="B16" s="10">
         <v>2015</v>
       </c>
-      <c r="C16" s="11">
-        <v>30</v>
+      <c r="C16" s="24">
+        <v>15</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>434</v>
@@ -9759,8 +9783,8 @@
       <c r="B17" s="10">
         <v>2015</v>
       </c>
-      <c r="C17" s="11">
-        <v>31</v>
+      <c r="C17" s="24">
+        <v>16</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>436</v>
@@ -9801,8 +9825,8 @@
       <c r="B18" s="10">
         <v>2015</v>
       </c>
-      <c r="C18" s="11">
-        <v>32</v>
+      <c r="C18" s="24">
+        <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>441</v>
@@ -9843,8 +9867,8 @@
       <c r="B19" s="10">
         <v>2015</v>
       </c>
-      <c r="C19" s="11">
-        <v>33</v>
+      <c r="C19" s="24">
+        <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>443</v>
@@ -9885,8 +9909,8 @@
       <c r="B20" s="10">
         <v>2015</v>
       </c>
-      <c r="C20" s="11">
-        <v>34</v>
+      <c r="C20" s="24">
+        <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>449</v>
@@ -9927,8 +9951,8 @@
       <c r="B21" s="10">
         <v>2015</v>
       </c>
-      <c r="C21" s="11">
-        <v>35</v>
+      <c r="C21" s="24">
+        <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>455</v>
@@ -9969,8 +9993,8 @@
       <c r="B22" s="10">
         <v>2015</v>
       </c>
-      <c r="C22" s="11">
-        <v>36</v>
+      <c r="C22" s="24">
+        <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>457</v>
@@ -10011,8 +10035,8 @@
       <c r="B23" s="10">
         <v>2015</v>
       </c>
-      <c r="C23" s="11">
-        <v>37</v>
+      <c r="C23" s="24">
+        <v>22</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>461</v>
@@ -10053,8 +10077,8 @@
       <c r="B24" s="10">
         <v>2015</v>
       </c>
-      <c r="C24" s="11">
-        <v>38</v>
+      <c r="C24" s="24">
+        <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>467</v>
@@ -10095,8 +10119,8 @@
       <c r="B25" s="10">
         <v>2015</v>
       </c>
-      <c r="C25" s="11">
-        <v>39</v>
+      <c r="C25" s="24">
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>473</v>
@@ -10137,8 +10161,8 @@
       <c r="B26" s="10">
         <v>2015</v>
       </c>
-      <c r="C26" s="11">
-        <v>36</v>
+      <c r="C26" s="24">
+        <v>25</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>457</v>
@@ -11156,8 +11180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11222,7 +11246,7 @@
         <v>2015</v>
       </c>
       <c r="C2" s="11">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>253</v>
@@ -11263,8 +11287,8 @@
       <c r="B3" s="10">
         <v>2015</v>
       </c>
-      <c r="C3" s="11">
-        <v>41</v>
+      <c r="C3" s="24">
+        <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>263</v>
@@ -11305,8 +11329,8 @@
       <c r="B4" s="10">
         <v>2015</v>
       </c>
-      <c r="C4" s="11">
-        <v>42</v>
+      <c r="C4" s="24">
+        <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>274</v>
@@ -11347,8 +11371,8 @@
       <c r="B5" s="10">
         <v>2015</v>
       </c>
-      <c r="C5" s="11">
-        <v>43</v>
+      <c r="C5" s="24">
+        <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>282</v>
@@ -11389,8 +11413,8 @@
       <c r="B6" s="10">
         <v>2015</v>
       </c>
-      <c r="C6" s="11">
-        <v>44</v>
+      <c r="C6" s="24">
+        <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>296</v>
@@ -11431,8 +11455,8 @@
       <c r="B7" s="10">
         <v>2015</v>
       </c>
-      <c r="C7" s="11">
-        <v>45</v>
+      <c r="C7" s="24">
+        <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>305</v>
@@ -11473,8 +11497,8 @@
       <c r="B8" s="10">
         <v>2015</v>
       </c>
-      <c r="C8" s="11">
-        <v>46</v>
+      <c r="C8" s="24">
+        <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>316</v>
@@ -11515,8 +11539,8 @@
       <c r="B9" s="10">
         <v>2015</v>
       </c>
-      <c r="C9" s="11">
-        <v>47</v>
+      <c r="C9" s="24">
+        <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>323</v>
@@ -11557,8 +11581,8 @@
       <c r="B10" s="10">
         <v>2015</v>
       </c>
-      <c r="C10" s="11">
-        <v>48</v>
+      <c r="C10" s="24">
+        <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>329</v>
@@ -11599,8 +11623,8 @@
       <c r="B11" s="10">
         <v>2015</v>
       </c>
-      <c r="C11" s="11">
-        <v>49</v>
+      <c r="C11" s="24">
+        <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>331</v>
@@ -11641,8 +11665,8 @@
       <c r="B12" s="10">
         <v>2015</v>
       </c>
-      <c r="C12" s="11">
-        <v>50</v>
+      <c r="C12" s="24">
+        <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>334</v>
@@ -11683,8 +11707,8 @@
       <c r="B13" s="10">
         <v>2015</v>
       </c>
-      <c r="C13" s="11">
-        <v>51</v>
+      <c r="C13" s="24">
+        <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>341</v>
@@ -11725,8 +11749,8 @@
       <c r="B14" s="10">
         <v>2015</v>
       </c>
-      <c r="C14" s="11">
-        <v>52</v>
+      <c r="C14" s="24">
+        <v>13</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>344</v>
@@ -11767,8 +11791,8 @@
       <c r="B15" s="10">
         <v>2015</v>
       </c>
-      <c r="C15" s="11">
-        <v>53</v>
+      <c r="C15" s="24">
+        <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>350</v>
@@ -11809,8 +11833,8 @@
       <c r="B16" s="10">
         <v>2015</v>
       </c>
-      <c r="C16" s="11">
-        <v>54</v>
+      <c r="C16" s="24">
+        <v>15</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>356</v>
@@ -11851,8 +11875,8 @@
       <c r="B17" s="10">
         <v>2015</v>
       </c>
-      <c r="C17" s="11">
-        <v>55</v>
+      <c r="C17" s="24">
+        <v>16</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>362</v>
@@ -11893,8 +11917,8 @@
       <c r="B18" s="10">
         <v>2015</v>
       </c>
-      <c r="C18" s="11">
-        <v>56</v>
+      <c r="C18" s="24">
+        <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>369</v>
@@ -11935,8 +11959,8 @@
       <c r="B19" s="10">
         <v>2015</v>
       </c>
-      <c r="C19" s="11">
-        <v>57</v>
+      <c r="C19" s="24">
+        <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>376</v>
@@ -11977,8 +12001,8 @@
       <c r="B20" s="10">
         <v>2015</v>
       </c>
-      <c r="C20" s="11">
-        <v>58</v>
+      <c r="C20" s="24">
+        <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>385</v>
@@ -12019,8 +12043,8 @@
       <c r="B21" s="10">
         <v>2015</v>
       </c>
-      <c r="C21" s="11">
-        <v>59</v>
+      <c r="C21" s="24">
+        <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>394</v>
@@ -12061,8 +12085,8 @@
       <c r="B22" s="10">
         <v>2015</v>
       </c>
-      <c r="C22" s="11">
-        <v>60</v>
+      <c r="C22" s="24">
+        <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>404</v>
@@ -12103,8 +12127,8 @@
       <c r="B23" s="10">
         <v>2015</v>
       </c>
-      <c r="C23" s="11">
-        <v>61</v>
+      <c r="C23" s="24">
+        <v>22</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>406</v>
@@ -12145,8 +12169,8 @@
       <c r="B24" s="10">
         <v>2015</v>
       </c>
-      <c r="C24" s="11">
-        <v>62</v>
+      <c r="C24" s="24">
+        <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>412</v>
@@ -12187,8 +12211,8 @@
       <c r="B25" s="10">
         <v>2015</v>
       </c>
-      <c r="C25" s="11">
-        <v>63</v>
+      <c r="C25" s="24">
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>415</v>
@@ -12229,8 +12253,8 @@
       <c r="B26" s="10">
         <v>2015</v>
       </c>
-      <c r="C26" s="11">
-        <v>60</v>
+      <c r="C26" s="24">
+        <v>25</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>404</v>
@@ -13251,7 +13275,7 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/app/src/main/res/raw/quiz_v1.xlsx
+++ b/app/src/main/res/raw/quiz_v1.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_quiz" sheetId="7" r:id="rId1"/>
-    <sheet name="quiz1" sheetId="1" r:id="rId2"/>
-    <sheet name="quiz2" sheetId="2" r:id="rId3"/>
-    <sheet name="quiz3" sheetId="3" r:id="rId4"/>
-    <sheet name="quiz4" sheetId="4" r:id="rId5"/>
-    <sheet name="quiz5" sheetId="5" r:id="rId6"/>
-    <sheet name="quiz6" sheetId="6" r:id="rId7"/>
+    <sheet name="quiz_geography1" sheetId="1" r:id="rId2"/>
+    <sheet name="quiz_politics1" sheetId="2" r:id="rId3"/>
+    <sheet name="quiz_environment1" sheetId="3" r:id="rId4"/>
+    <sheet name="quiz_independence1" sheetId="4" r:id="rId5"/>
+    <sheet name="quiz_environment2" sheetId="5" r:id="rId6"/>
+    <sheet name="quiz_politics2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -1699,25 +1699,25 @@
     <t>Group2</t>
   </si>
   <si>
-    <t>quiz1</t>
-  </si>
-  <si>
-    <t>quiz2</t>
-  </si>
-  <si>
-    <t>quiz3</t>
-  </si>
-  <si>
-    <t>quiz4</t>
-  </si>
-  <si>
-    <t>quiz5</t>
-  </si>
-  <si>
-    <t>quiz6</t>
-  </si>
-  <si>
     <t>00_20_00</t>
+  </si>
+  <si>
+    <t>quiz_environment2</t>
+  </si>
+  <si>
+    <t>quiz_politics2</t>
+  </si>
+  <si>
+    <t>quiz_independence1</t>
+  </si>
+  <si>
+    <t>quiz_politics1</t>
+  </si>
+  <si>
+    <t>quiz_environment1</t>
+  </si>
+  <si>
+    <t>quiz_geography1</t>
   </si>
 </sst>
 </file>
@@ -2237,9 +2237,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2263,7 +2268,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2278,12 +2283,12 @@
         <v>25</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
         <v>479</v>
@@ -2298,7 +2303,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -2312,13 +2317,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
         <v>479</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
         <v>485</v>
@@ -2327,7 +2332,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -2356,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -2370,7 +2375,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
         <v>268</v>
@@ -2385,7 +2390,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -2399,7 +2404,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
         <v>479</v>
@@ -2414,7 +2419,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -13275,13 +13280,16 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.83203125" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
